--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga31\Desktop\수업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\Development\ERPSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C47B9F-92A0-4BE6-BDCC-1F2476330DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C49A3-38F5-4D7A-BF7D-81E18FFC28EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="CorporateType" sheetId="5" r:id="rId1"/>
-    <sheet name="CorporateKind" sheetId="6" r:id="rId2"/>
-    <sheet name="Entry" sheetId="1" r:id="rId3"/>
-    <sheet name="VatType" sheetId="2" r:id="rId4"/>
-    <sheet name="CashBook" sheetId="3" r:id="rId5"/>
-    <sheet name="TaxInvoice" sheetId="4" r:id="rId6"/>
+    <sheet name="PurchaseSalesSlip" sheetId="7" r:id="rId1"/>
+    <sheet name="CorporateType" sheetId="5" r:id="rId2"/>
+    <sheet name="CorporateKind" sheetId="6" r:id="rId3"/>
+    <sheet name="Entry" sheetId="1" r:id="rId4"/>
+    <sheet name="VatType" sheetId="2" r:id="rId5"/>
+    <sheet name="CashBook" sheetId="3" r:id="rId6"/>
+    <sheet name="TaxInvoice" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +367,59 @@
   <si>
     <t>외투법인</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vatTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entryId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronicTaxInvoiceIssued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test24</t>
   </si>
 </sst>
 </file>
@@ -781,52 +835,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5713A9-3753-4595-AEEA-F50BD1239D80}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45466</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45467</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -836,20 +1018,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3FF344-99DE-406B-9665-C71397F78565}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5713A9-3753-4595-AEEA-F50BD1239D80}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -857,115 +1039,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -975,6 +1073,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3FF344-99DE-406B-9665-C71397F78565}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6829820-5163-451C-BDE8-9004A047D6C2}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -982,39 +1219,39 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BEFEAC-7826-45BE-81E0-0B8E7BEEC07A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -1033,9 +1270,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1171,7 +1408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1179,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1219,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1243,7 +1480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1251,7 +1488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6BB459-5620-4A1D-9826-E641F7D7F724}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1273,17 +1510,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1329,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1352,7 +1589,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1382,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB35329-EBCD-46FF-8FF6-8B0ADEB759EB}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1390,22 +1627,22 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1475,7 +1712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1747,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\Development\ERPSystem\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga31\Desktop\수업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C49A3-38F5-4D7A-BF7D-81E18FFC28EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB3E900-4D8C-4020-B497-7C9B81A0CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseSalesSlip" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,13 +413,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test24</t>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -836,21 +841,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.19921875" customWidth="1"/>
+    <col min="10" max="10" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -882,7 +887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -914,7 +919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -946,7 +951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -978,7 +983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1007,6 +1012,38 @@
         <v>3.2</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45467</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1025,13 +1062,13 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1039,7 +1076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -1047,19 +1084,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -1080,13 +1117,13 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1094,7 +1131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -1102,103 +1139,103 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1219,39 +1256,39 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1270,9 +1307,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1464,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1510,17 +1547,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1566,7 +1603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1589,7 +1626,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1627,22 +1664,22 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1677,7 +1714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1712,7 +1749,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1747,7 +1784,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga31\Desktop\수업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB3E900-4D8C-4020-B497-7C9B81A0CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EFA1F4-C993-43E5-A254-BF53BF565818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseSalesSlip" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,10 +417,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>test4</t>
+  </si>
+  <si>
     <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -844,7 +841,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -933,7 +930,7 @@
         <v>45465</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1">
         <v>1.1000000000000001</v>
@@ -947,8 +944,8 @@
       <c r="I3" s="1">
         <v>1.4</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>94</v>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -965,7 +962,7 @@
         <v>45466</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
         <v>2.1</v>
@@ -979,8 +976,8 @@
       <c r="I4" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>94</v>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -1011,8 +1008,8 @@
       <c r="I5" s="1">
         <v>3.2</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>94</v>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -1029,7 +1026,7 @@
         <v>45467</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1">
         <v>4.0999999999999996</v>
@@ -1043,8 +1040,8 @@
       <c r="I6" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>94</v>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga31\Desktop\수업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EFA1F4-C993-43E5-A254-BF53BF565818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464C38E-FC0E-4F7D-B25E-DE1212485677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="PurchaseSalesSlip" sheetId="7" r:id="rId1"/>
-    <sheet name="CorporateType" sheetId="5" r:id="rId2"/>
-    <sheet name="CorporateKind" sheetId="6" r:id="rId3"/>
-    <sheet name="Entry" sheetId="1" r:id="rId4"/>
-    <sheet name="VatType" sheetId="2" r:id="rId5"/>
-    <sheet name="CashBook" sheetId="3" r:id="rId6"/>
-    <sheet name="TaxInvoice" sheetId="4" r:id="rId7"/>
+    <sheet name="Account" sheetId="8" r:id="rId1"/>
+    <sheet name="PurchaseSalesSlip" sheetId="7" r:id="rId2"/>
+    <sheet name="CorporateType" sheetId="5" r:id="rId3"/>
+    <sheet name="CorporateKind" sheetId="6" r:id="rId4"/>
+    <sheet name="Entry" sheetId="1" r:id="rId5"/>
+    <sheet name="VatType" sheetId="2" r:id="rId6"/>
+    <sheet name="CashBook" sheetId="3" r:id="rId7"/>
+    <sheet name="TaxInvoice" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="370">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +422,1093 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당좌예금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통예금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단기매매증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외상매출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받을어음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단기대여금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도가능증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만기보유증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>정기예.적금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타단기금융상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단기예금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외상매출금대손충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받을어음대손충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선급비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연법인세자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세대급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선납세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주임종단기채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전도금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관세환급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관세환급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미착품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재공품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자부동산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기금융상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정현금과예금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기투자증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지분법적용투자주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기대여금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기대여금대손충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기성매출채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가치할인차금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기성매출채권대손충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부도어음과수표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부도어음과수표대손충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구축물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구축물감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계장치감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량운반구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량운반구감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공구와기구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공구와기구감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비품감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설장치감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설비자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설비자산감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설중인자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타자산감가상각누계액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이선스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임차권리금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광업권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어업권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기매출채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기선급비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기선급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임차보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전신전화가입권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단기차입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외상매입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급어음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세예수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당좌차월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예수보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기법인세부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지급비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신주인수권부사채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환사채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기차입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직급여충당부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체퇴직보험예치금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체퇴직급여충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통주자본금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선주자본금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식발행초과금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기주식처분이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자차익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식할인발행차금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식매입선택권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출자전환채무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자차손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도가능증권평가손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외사업환산손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금흐름위험회피파생상품평가손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타법정적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타임의적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기이월미처분이익잉여금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기순이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품매출환입및에누리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품매출할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품매출환입및에누리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품매출할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임금(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상여금(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제수당(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡급(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직급여충당금전입(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체급여충당금전입(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직급여(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복리후생비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여비교통비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접대비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상연구개발비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도광열비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금과공과금(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감가상각비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급임차료(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량유지비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육훈련비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서인쇄비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무용품비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급수수료(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주용역비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운반비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주가공비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡비(제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임금(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상여금(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡급(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직급여(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복리후생비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여비교통비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접대비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도광열비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금과공과금(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감가상각비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급임차료(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량유지비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육훈련비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서인쇄비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무용품비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급수수료(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운반비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비사용료(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주용역비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고선전비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡비(용역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원급여(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원급여(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상여금(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제수당(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡급(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직급여(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복리후생비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여비교통비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접대비-카드(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접대비-일반(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상연구개발비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금과공과금(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감가상각비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급임차료(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량유지비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육훈련비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무용품비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도광열비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급수수료(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서인쇄비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고선전비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주용역비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매촉진비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대손상각비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물관리비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운반비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출제비용(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매수수료(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무형자산상각(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견본비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡비(판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가증권이자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당금수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입임대료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기오류수정이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가증권처분이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가증권평가이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외환차익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외화환산이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지분법평가이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대손충당금환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형자산처분이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자유가증권감액손실환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자자산처분이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상각채권추심이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사채상환이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인세환급액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산수증이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채무면제이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험차익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중소투자준비금환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술개발준비금환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외개척준비금환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지방이전준비금환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출손실준비금환입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국고보조금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외환차손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외화환산손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타의대손상각비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기오류수정손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지분법평가손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가증권처분손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가증권평가손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고자산감모손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고자산평가손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형자산처분손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자자산처분손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사채상환손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인세추납액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재해손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중소투자준비금전입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술개발준비금전입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외개척준비금전입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지방이전준비금전입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출손실준비금전입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별상각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인세등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,10 +1925,2492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE76C3-5557-42EF-B035-AA9463A2CC8F}">
+  <dimension ref="A1:I274"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="I24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="I26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="I27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="I28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="I29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="I31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="I33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="I34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="I47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="I48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="I50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="I51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="I52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="I53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="I54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="I59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="I61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="I62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="I63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="I64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="I65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="I66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="I67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="I68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="I70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="I71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="I72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="I74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="I88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="I89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="I90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="I91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="I92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="I93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="I94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="I95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="I96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="I97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="I98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="I99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="I100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="I101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="I102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="I103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="I104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="I105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="I106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="I107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="I108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="I109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="I110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="I111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="I112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="I113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="I114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="I115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="I116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="I117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="I118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="I119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="I120" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="I121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="I122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="I123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="I124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="I125" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="I126" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="I127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="I128" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="I129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="I130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="I131" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="I132" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="I133" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="I134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="I135" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="I136" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="I137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="I138" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="I139" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="I140" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="I141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="I142" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="I143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="I144" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="I145" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="I146" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="I147" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="I148" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="I149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="I150" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="I151" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="I152" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="I153" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="I154" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="I155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="I156" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="I157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="I158" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="I159" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="I160" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="I161" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="I162" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="I163" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="I164" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="I165" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="I166" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="I167" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="I168" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="I169" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="I170" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="I171" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="I172" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="I173" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="I174" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="I175" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="I176" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="I177" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="I178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="I179" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="I180" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="I181" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="I182" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="I183" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="I184" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="I185" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="I186" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="I187" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="I188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="I189" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="I190" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="I191" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="I192" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="I193" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="I194" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="I195" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="I196" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="I197" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="I198" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="I199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="I200" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="I201" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="I202" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="I203" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="I204" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="I205" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="I206" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="I207" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="I208" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="I209" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="I210" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="I211" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="I212" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="I213" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="I214" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="I215" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="I216" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="I217" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="I218" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="I219" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="I220" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="I221" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="I222" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="I223" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="I224" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="I225" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="I226" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="I227" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="I228" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="I229" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="I230" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="I231" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="I232" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="I233" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="I234" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A235" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="I235" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="I236" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="I237" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="I238" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="I239" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="I240" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A241" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="I241" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="I242" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="I243" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A244" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="I244" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A245" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="I245" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A246" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="I246" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A247" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="I247" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A248" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="I248" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A249" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="I249" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A250" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="I250" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A251" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="I251" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A252" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="I252" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A253" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="I253" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A254" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="I254" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A255" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="I255" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A256" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="I256" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A257" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="I257" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A258" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="I258" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A259" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="I259" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="I260" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="I261" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A262" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="I262" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A263" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="I263" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A264" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="I264" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A265" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="I265" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A266" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="I266" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A267" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="I267" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A268" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="I268" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A269" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="I269" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="I270" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A271" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="I271" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A272" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="I272" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="I273" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A274" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B274" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +4621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5713A9-3753-4595-AEEA-F50BD1239D80}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1106,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3FF344-99DE-406B-9665-C71397F78565}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1245,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6829820-5163-451C-BDE8-9004A047D6C2}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1296,7 +4866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BEFEAC-7826-45BE-81E0-0B8E7BEEC07A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -1536,7 +5106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6BB459-5620-4A1D-9826-E641F7D7F724}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1653,7 +5223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB35329-EBCD-46FF-8FF6-8B0ADEB759EB}">
   <dimension ref="A1:K4"/>
   <sheetViews>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\Development\ERPSystem\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0423C3C4-59A5-4B1B-9A06-4C05A9FADBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{009C80FF-13A2-4E2F-8E82-5C47A442E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="BankTransaction" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="414">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7100BCC3-DB0D-47FB-B986-1202A4F8D5FF}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2571,7 +2571,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5393,21 +5393,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -5418,13 +5419,13 @@
         <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>89</v>
@@ -5436,42 +5437,48 @@
         <v>89</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5481,49 +5488,52 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>45465</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1.4</v>
       </c>
-      <c r="J3" s="1" t="b">
+      <c r="K3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>45466</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2.1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.2000000000000002</v>
       </c>
       <c r="H4" s="1">
         <v>2.2000000000000002</v>
@@ -5531,31 +5541,34 @@
       <c r="I4" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="1" t="b">
+      <c r="J4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
         <v>45467</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3.1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.2</v>
       </c>
       <c r="H5" s="1">
         <v>3.2</v>
@@ -5563,39 +5576,45 @@
       <c r="I5" s="1">
         <v>3.2</v>
       </c>
-      <c r="J5" s="1" t="b">
+      <c r="J5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
         <v>45467</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>4.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>4.3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J6" s="1" t="b">
+      <c r="K6" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\Development\ERPSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0423C3C4-59A5-4B1B-9A06-4C05A9FADBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96038004-FD05-4BF3-BD03-046D4B6372F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="7590" yWindow="3030" windowWidth="25425" windowHeight="14865" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="BankTransaction" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="TaxInvoice" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BankTransaction!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BankTransaction!$A$2:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="417">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1680,6 +1680,18 @@
   </si>
   <si>
     <t>출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carriedOverDebit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carriedOverCredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2097,19 +2109,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7100BCC3-DB0D-47FB-B986-1202A4F8D5FF}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -2117,10 +2135,10 @@
         <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>89</v>
@@ -2128,8 +2146,17 @@
       <c r="F1" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>410</v>
       </c>
@@ -2137,260 +2164,377 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="3">
         <v>45474</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1000000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1001000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="3">
         <v>45475</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="G4" s="1">
         <v>5000</v>
       </c>
-      <c r="F4" s="1">
-        <v>995000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>996000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="3">
-        <v>45475</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45506</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
+        <v>996000</v>
+      </c>
+      <c r="G5" s="1">
         <v>10000</v>
       </c>
-      <c r="F5" s="1">
-        <v>985000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>986000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="3">
-        <v>45474</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45108</v>
+      </c>
+      <c r="E6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-9900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="3">
-        <v>45474</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9900</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C8" s="3">
-        <v>45474</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E8" s="1">
         <v>1000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="3">
-        <v>45474</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45108</v>
+      </c>
+      <c r="E9" s="1">
         <v>10000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="3">
         <v>45474</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>5000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="3">
         <v>45474</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>3000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="3">
         <v>45474</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>20000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="3">
         <v>45474</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>500000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="3">
         <v>45474</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>300000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>300000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F14" xr:uid="{7100BCC3-DB0D-47FB-B986-1202A4F8D5FF}"/>
+  <autoFilter ref="A2:I14" xr:uid="{7100BCC3-DB0D-47FB-B986-1202A4F8D5FF}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2568,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819FA009-EFBF-4925-85C6-7733B1434EF6}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+      <selection activeCell="A10" activeCellId="1" sqref="A4:I4 A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2580,7 +2724,7 @@
     <col min="2" max="7" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -2603,7 +2747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>370</v>
       </c>
@@ -2626,7 +2770,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2648,8 +2792,11 @@
       <c r="G3" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2671,8 +2818,11 @@
       <c r="G4" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2694,8 +2844,11 @@
       <c r="G5" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2717,8 +2870,11 @@
       <c r="G6" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2740,8 +2896,11 @@
       <c r="G7" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2763,8 +2922,11 @@
       <c r="G8" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2786,8 +2948,11 @@
       <c r="G9" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2809,8 +2974,11 @@
       <c r="G10" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2832,8 +3000,11 @@
       <c r="G11" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2855,8 +3026,11 @@
       <c r="G12" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2878,8 +3052,11 @@
       <c r="G13" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2900,6 +3077,9 @@
       </c>
       <c r="G14" s="1" t="s">
         <v>397</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5393,21 +5573,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -5418,13 +5599,13 @@
         <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>89</v>
@@ -5436,42 +5617,48 @@
         <v>89</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5481,49 +5668,52 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>45465</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1.4</v>
       </c>
-      <c r="J3" s="1" t="b">
+      <c r="K3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>45466</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2.1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.2000000000000002</v>
       </c>
       <c r="H4" s="1">
         <v>2.2000000000000002</v>
@@ -5531,31 +5721,34 @@
       <c r="I4" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="1" t="b">
+      <c r="J4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
         <v>45467</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3.1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.2</v>
       </c>
       <c r="H5" s="1">
         <v>3.2</v>
@@ -5563,39 +5756,45 @@
       <c r="I5" s="1">
         <v>3.2</v>
       </c>
-      <c r="J5" s="1" t="b">
+      <c r="J5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
         <v>45467</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>4.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>4.3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J6" s="1" t="b">
+      <c r="K6" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga12\ERPSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009C80FF-13A2-4E2F-8E82-5C47A442E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA11D0B-879C-430B-8183-D90691BECB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="-25185" yWindow="2940" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="BankTransaction" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="415">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1680,6 +1680,10 @@
   </si>
   <si>
     <t>출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5393,10 +5397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5615,6 +5619,41 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45475</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="K7" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gj156\Desktop\Development\ERPSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96038004-FD05-4BF3-BD03-046D4B6372F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587E6F1-1F40-44D7-9ADB-E3F48B748799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="3030" windowWidth="25425" windowHeight="14865" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="BankTransaction" sheetId="10" r:id="rId1"/>
@@ -1517,10 +1517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERPCompanyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>openingDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1692,6 +1688,10 @@
   </si>
   <si>
     <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCompanyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2111,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7100BCC3-DB0D-47FB-B986-1202A4F8D5FF}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>57</v>
@@ -2173,16 +2173,16 @@
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D3" s="3">
         <v>45474</v>
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D4" s="3">
         <v>45475</v>
@@ -2248,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5" s="3">
         <v>45506</v>
@@ -2277,10 +2277,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D6" s="3">
         <v>45108</v>
@@ -2306,10 +2306,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" s="3">
         <v>45108</v>
@@ -2335,10 +2335,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" s="3">
         <v>45200</v>
@@ -2364,10 +2364,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D9" s="3">
         <v>45108</v>
@@ -2393,10 +2393,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D10" s="3">
         <v>45474</v>
@@ -2422,10 +2422,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" s="3">
         <v>45474</v>
@@ -2451,10 +2451,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D12" s="3">
         <v>45474</v>
@@ -2480,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" s="3">
         <v>45474</v>
@@ -2509,10 +2509,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D14" s="3">
         <v>45474</v>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A4:I4 A10:H10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2749,25 +2749,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2778,19 +2778,19 @@
         <v>45444</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2804,19 +2804,19 @@
         <v>45445</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2830,19 +2830,19 @@
         <v>45446</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2856,19 +2856,19 @@
         <v>45447</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2882,19 +2882,19 @@
         <v>45448</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -2908,19 +2908,19 @@
         <v>45449</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -2934,19 +2934,19 @@
         <v>45450</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -2960,19 +2960,19 @@
         <v>45451</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -2986,19 +2986,19 @@
         <v>45452</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -3012,19 +3012,19 @@
         <v>45453</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -3038,19 +3038,19 @@
         <v>45454</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -3064,19 +3064,19 @@
         <v>45455</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -5576,7 +5576,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5628,7 +5628,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>61</v>
@@ -6054,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BEFEAC-7826-45BE-81E0-0B8E7BEEC07A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/financial-accounting-data.xlsx
+++ b/src/main/resources/financial-accounting-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga12\ERPSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7CB4B-4C1A-4E70-99C8-C786BB6F3DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D6837-930F-493C-9A8C-509F4F1B3066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="12" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
+    <workbookView xWindow="11370" yWindow="705" windowWidth="17430" windowHeight="11295" firstSheet="15" activeTab="18" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="BankTransaction" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="528">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과세매출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과세매입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,9 +183,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>bigdecimal</t>
   </si>
   <si>
@@ -1861,18 +1850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>corporateTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2033,10 +2010,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EntityType.INCORPORATIED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-1187-6626</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2116,6 +2089,29 @@
   </si>
   <si>
     <t>adminId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityType.INCORPORATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category.SALES</t>
+  </si>
+  <si>
+    <t>Category.SALES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category.PURCHASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2225,9 +2221,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2587,60 +2580,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2648,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D3" s="3">
         <v>45474</v>
@@ -2677,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D4" s="3">
         <v>45475</v>
@@ -2706,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D5" s="3">
         <v>45506</v>
@@ -2735,10 +2728,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D6" s="3">
         <v>45108</v>
@@ -2764,10 +2757,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D7" s="3">
         <v>45108</v>
@@ -2793,10 +2786,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D8" s="3">
         <v>45200</v>
@@ -2822,10 +2815,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D9" s="3">
         <v>45108</v>
@@ -2851,10 +2844,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D10" s="3">
         <v>45474</v>
@@ -2880,10 +2873,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D11" s="3">
         <v>45474</v>
@@ -2909,10 +2902,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D12" s="3">
         <v>45474</v>
@@ -2938,10 +2931,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D13" s="3">
         <v>45474</v>
@@ -2967,10 +2960,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D14" s="3">
         <v>45474</v>
@@ -3004,7 +2997,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,13 +3007,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3028,18 +3021,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -3066,10 +3059,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3077,47 +3070,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -3179,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD804EE-B6E1-4BD9-A4F0-3CBBF1EB9562}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3203,145 +3196,85 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3354,15 +3287,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BEFEAC-7826-45BE-81E0-0B8E7BEEC07A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3378,215 +3314,216 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3595,7 +3532,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3615,89 +3552,89 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>523</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4">
         <v>45445</v>
@@ -3706,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>1000000</v>
@@ -3720,19 +3657,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <v>45446</v>
@@ -3741,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1">
         <v>500000</v>
@@ -3787,90 +3724,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3896,25 +3833,25 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="I3" t="s">
-        <v>519</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>520</v>
+        <v>512</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>513</v>
       </c>
       <c r="K3" t="s">
-        <v>521</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>522</v>
+        <v>514</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>515</v>
       </c>
       <c r="M3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="N3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3943,10 +3880,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3954,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3963,2442 +3900,2442 @@
       </c>
       <c r="B3" s="1"/>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1"/>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1"/>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1"/>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1"/>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1"/>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1"/>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1"/>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1"/>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1"/>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1"/>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1"/>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1"/>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1"/>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1"/>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1"/>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1"/>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1"/>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1"/>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1"/>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" s="1"/>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1"/>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1"/>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1"/>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1"/>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1"/>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1"/>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1"/>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1"/>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1"/>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1"/>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1"/>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1"/>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1"/>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1"/>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1"/>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1"/>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1"/>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1"/>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1"/>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1"/>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1"/>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1"/>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1"/>
       <c r="I47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B48" s="1"/>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" s="1"/>
       <c r="I49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1"/>
       <c r="I50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1"/>
       <c r="I51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B52" s="1"/>
       <c r="I52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B53" s="1"/>
       <c r="I53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B54" s="1"/>
       <c r="I54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55" s="1"/>
       <c r="I55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B56" s="1"/>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1"/>
       <c r="I57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1"/>
       <c r="I58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B59" s="1"/>
       <c r="I59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B60" s="1"/>
       <c r="I60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B61" s="1"/>
       <c r="I61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1"/>
       <c r="I62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1"/>
       <c r="I63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1"/>
       <c r="I64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B65" s="1"/>
       <c r="I65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B66" s="1"/>
       <c r="I66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B67" s="1"/>
       <c r="I67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1"/>
       <c r="I68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1"/>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B70" s="1"/>
       <c r="I70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B71" s="1"/>
       <c r="I71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1"/>
       <c r="I72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1"/>
       <c r="I73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1"/>
       <c r="I74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B75" s="1"/>
       <c r="I75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B76" s="1"/>
       <c r="I76" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1"/>
       <c r="I77" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B78" s="1"/>
       <c r="I78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B79" s="1"/>
       <c r="I79" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B80" s="1"/>
       <c r="I80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B81" s="1"/>
       <c r="I81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B82" s="1"/>
       <c r="I82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1"/>
       <c r="I83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B84" s="1"/>
       <c r="I84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B85" s="1"/>
       <c r="I85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B86" s="1"/>
       <c r="I86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1"/>
       <c r="I87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B88" s="1"/>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B89" s="1"/>
       <c r="I89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B90" s="1"/>
       <c r="I90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B91" s="1"/>
       <c r="I91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B92" s="1"/>
       <c r="I92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B93" s="1"/>
       <c r="I93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B94" s="1"/>
       <c r="I94" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B95" s="1"/>
       <c r="I95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B96" s="1"/>
       <c r="I96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B97" s="1"/>
       <c r="I97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B98" s="1"/>
       <c r="I98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B99" s="1"/>
       <c r="I99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B100" s="1"/>
       <c r="I100" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B101" s="1"/>
       <c r="I101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B102" s="1"/>
       <c r="I102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B103" s="1"/>
       <c r="I103" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B104" s="1"/>
       <c r="I104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B105" s="1"/>
       <c r="I105" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B106" s="1"/>
       <c r="I106" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1"/>
       <c r="I107" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B108" s="1"/>
       <c r="I108" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B109" s="1"/>
       <c r="I109" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B110" s="1"/>
       <c r="I110" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B111" s="1"/>
       <c r="I111" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B112" s="1"/>
       <c r="I112" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B113" s="1"/>
       <c r="I113" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B114" s="1"/>
       <c r="I114" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B115" s="1"/>
       <c r="I115" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B116" s="1"/>
       <c r="I116" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B117" s="1"/>
       <c r="I117" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B118" s="1"/>
       <c r="I118" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B119" s="1"/>
       <c r="I119" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B120" s="1"/>
       <c r="I120" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B121" s="1"/>
       <c r="I121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B122" s="1"/>
       <c r="I122" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B123" s="1"/>
       <c r="I123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B124" s="1"/>
       <c r="I124" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B125" s="1"/>
       <c r="I125" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B126" s="1"/>
       <c r="I126" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B127" s="1"/>
       <c r="I127" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B128" s="1"/>
       <c r="I128" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B129" s="1"/>
       <c r="I129" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B130" s="1"/>
       <c r="I130" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B131" s="1"/>
       <c r="I131" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B132" s="1"/>
       <c r="I132" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B133" s="1"/>
       <c r="I133" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B134" s="1"/>
       <c r="I134" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B135" s="1"/>
       <c r="I135" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B136" s="1"/>
       <c r="I136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B137" s="1"/>
       <c r="I137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B138" s="1"/>
       <c r="I138" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B139" s="1"/>
       <c r="I139" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B140" s="1"/>
       <c r="I140" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B141" s="1"/>
       <c r="I141" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B142" s="1"/>
       <c r="I142" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B143" s="1"/>
       <c r="I143" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B144" s="1"/>
       <c r="I144" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B145" s="1"/>
       <c r="I145" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B146" s="1"/>
       <c r="I146" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B147" s="1"/>
       <c r="I147" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B148" s="1"/>
       <c r="I148" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B149" s="1"/>
       <c r="I149" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B150" s="1"/>
       <c r="I150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B151" s="1"/>
       <c r="I151" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B152" s="1"/>
       <c r="I152" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B153" s="1"/>
       <c r="I153" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B154" s="1"/>
       <c r="I154" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B155" s="1"/>
       <c r="I155" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B156" s="1"/>
       <c r="I156" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B157" s="1"/>
       <c r="I157" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B158" s="1"/>
       <c r="I158" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B159" s="1"/>
       <c r="I159" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B160" s="1"/>
       <c r="I160" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B161" s="1"/>
       <c r="I161" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B162" s="1"/>
       <c r="I162" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B163" s="1"/>
       <c r="I163" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B164" s="1"/>
       <c r="I164" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B165" s="1"/>
       <c r="I165" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B166" s="1"/>
       <c r="I166" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B167" s="1"/>
       <c r="I167" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B168" s="1"/>
       <c r="I168" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B169" s="1"/>
       <c r="I169" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B170" s="1"/>
       <c r="I170" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B171" s="1"/>
       <c r="I171" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B172" s="1"/>
       <c r="I172" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B173" s="1"/>
       <c r="I173" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B174" s="1"/>
       <c r="I174" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B175" s="1"/>
       <c r="I175" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B176" s="1"/>
       <c r="I176" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B177" s="1"/>
       <c r="I177" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B178" s="1"/>
       <c r="I178" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B179" s="1"/>
       <c r="I179" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B180" s="1"/>
       <c r="I180" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B181" s="1"/>
       <c r="I181" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B182" s="1"/>
       <c r="I182" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B183" s="1"/>
       <c r="I183" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B184" s="1"/>
       <c r="I184" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B185" s="1"/>
       <c r="I185" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B186" s="1"/>
       <c r="I186" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B187" s="1"/>
       <c r="I187" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B188" s="1"/>
       <c r="I188" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B189" s="1"/>
       <c r="I189" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B190" s="1"/>
       <c r="I190" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B191" s="1"/>
       <c r="I191" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B192" s="1"/>
       <c r="I192" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B193" s="1"/>
       <c r="I193" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B194" s="1"/>
       <c r="I194" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B195" s="1"/>
       <c r="I195" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B196" s="1"/>
       <c r="I196" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B197" s="1"/>
       <c r="I197" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B198" s="1"/>
       <c r="I198" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B199" s="1"/>
       <c r="I199" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B200" s="1"/>
       <c r="I200" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B201" s="1"/>
       <c r="I201" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B202" s="1"/>
       <c r="I202" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B203" s="1"/>
       <c r="I203" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B204" s="1"/>
       <c r="I204" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B205" s="1"/>
       <c r="I205" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B206" s="1"/>
       <c r="I206" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B207" s="1"/>
       <c r="I207" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B208" s="1"/>
       <c r="I208" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B209" s="1"/>
       <c r="I209" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B210" s="1"/>
       <c r="I210" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B211" s="1"/>
       <c r="I211" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B212" s="1"/>
       <c r="I212" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B213" s="1"/>
       <c r="I213" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B214" s="1"/>
       <c r="I214" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B215" s="1"/>
       <c r="I215" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B216" s="1"/>
       <c r="I216" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B217" s="1"/>
       <c r="I217" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B218" s="1"/>
       <c r="I218" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B219" s="1"/>
       <c r="I219" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B220" s="1"/>
       <c r="I220" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B221" s="1"/>
       <c r="I221" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B222" s="1"/>
       <c r="I222" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B223" s="1"/>
       <c r="I223" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B224" s="1"/>
       <c r="I224" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B225" s="1"/>
       <c r="I225" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B226" s="1"/>
       <c r="I226" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B227" s="1"/>
       <c r="I227" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B228" s="1"/>
       <c r="I228" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B229" s="1"/>
       <c r="I229" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B230" s="1"/>
       <c r="I230" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B231" s="1"/>
       <c r="I231" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B232" s="1"/>
       <c r="I232" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B233" s="1"/>
       <c r="I233" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B234" s="1"/>
       <c r="I234" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B235" s="1"/>
       <c r="I235" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B236" s="1"/>
       <c r="I236" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B237" s="1"/>
       <c r="I237" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B238" s="1"/>
       <c r="I238" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B239" s="1"/>
       <c r="I239" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B240" s="1"/>
       <c r="I240" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B241" s="1"/>
       <c r="I241" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B242" s="1"/>
       <c r="I242" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B243" s="1"/>
       <c r="I243" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B244" s="1"/>
       <c r="I244" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B245" s="1"/>
       <c r="I245" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B246" s="1"/>
       <c r="I246" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B247" s="1"/>
       <c r="I247" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B248" s="1"/>
       <c r="I248" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B249" s="1"/>
       <c r="I249" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B250" s="1"/>
       <c r="I250" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B251" s="1"/>
       <c r="I251" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B252" s="1"/>
       <c r="I252" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B253" s="1"/>
       <c r="I253" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B254" s="1"/>
       <c r="I254" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B255" s="1"/>
       <c r="I255" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B256" s="1"/>
       <c r="I256" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B257" s="1"/>
       <c r="I257" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B258" s="1"/>
       <c r="I258" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B259" s="1"/>
       <c r="I259" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B260" s="1"/>
       <c r="I260" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B261" s="1"/>
       <c r="I261" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B262" s="1"/>
       <c r="I262" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B263" s="1"/>
       <c r="I263" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B264" s="1"/>
       <c r="I264" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B265" s="1"/>
       <c r="I265" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B266" s="1"/>
       <c r="I266" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B267" s="1"/>
       <c r="I267" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B268" s="1"/>
       <c r="I268" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B269" s="1"/>
       <c r="I269" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B270" s="1"/>
       <c r="I270" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B271" s="1"/>
       <c r="I271" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B272" s="1"/>
       <c r="I272" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B273" s="1"/>
       <c r="I273" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B274" s="1"/>
     </row>
@@ -6414,7 +6351,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6426,24 +6363,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6451,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -6467,8 +6404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FB7E83-7678-4B24-B614-25E0CAF3AD2A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6486,72 +6423,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6559,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -6590,6 +6527,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6609,48 +6547,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6661,19 +6599,19 @@
         <v>45444</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6687,19 +6625,19 @@
         <v>45445</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -6713,19 +6651,19 @@
         <v>45446</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -6739,19 +6677,19 @@
         <v>45447</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -6765,19 +6703,19 @@
         <v>45448</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -6791,19 +6729,19 @@
         <v>45449</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -6817,19 +6755,19 @@
         <v>45450</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -6843,19 +6781,19 @@
         <v>45451</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -6869,19 +6807,19 @@
         <v>45452</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -6895,19 +6833,19 @@
         <v>45453</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -6921,19 +6859,19 @@
         <v>45454</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -6947,19 +6885,19 @@
         <v>45455</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -7001,39 +6939,39 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7109,62 +7047,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B3" s="1">
         <v>11532</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E3" s="1">
         <v>11667</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7190,15 +7128,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -7209,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7233,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7241,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7249,7 +7187,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7257,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7265,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7273,7 +7211,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7281,7 +7219,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7289,7 +7227,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7305,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7313,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7321,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7329,7 +7267,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7337,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7345,7 +7283,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7353,7 +7291,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7361,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7369,7 +7307,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7377,7 +7315,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7385,7 +7323,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7393,7 +7331,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -7401,7 +7339,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -7409,7 +7347,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7417,7 +7355,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -7425,7 +7363,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -7433,7 +7371,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7441,7 +7379,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7449,7 +7387,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -7457,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7465,7 +7403,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7489,7 +7427,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -7499,57 +7437,57 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7560,10 +7498,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994054EA-9F9E-403D-A450-4737A0028132}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7592,126 +7530,126 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -7749,19 +7687,19 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="N3" s="3">
         <v>45300</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q3" s="1" t="b">
         <v>1</v>
@@ -7775,32 +7713,11 @@
       <c r="T3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7820,26 +7737,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7864,119 +7781,119 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1"/>
     </row>
@@ -8003,35 +7920,35 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1"/>
     </row>
